--- a/Data/Moss_Data_Full.xlsx
+++ b/Data/Moss_Data_Full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\Universidad\Master\EB2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\mlmah\OneDrive\Documentos\MLME\Maestria\Animal_Ecology_2022_2024\2024\Evolution_2\MossProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882DCC24-F21F-4823-A432-4C33814FFC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977280C-F18E-4945-9CBA-E51A45021783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AE31BC3F-18CC-438C-8FE0-2F83115F5B96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{AE31BC3F-18CC-438C-8FE0-2F83115F5B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Dry_data" sheetId="1" r:id="rId1"/>
@@ -20,29 +20,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complete!$A$1:$D$288</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dry_data!$B$1:$B$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Separate!$A$1:$D$288</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -221,21 +211,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Hypnium</t>
-  </si>
-  <si>
-    <t>Rythiadadelpus</t>
-  </si>
-  <si>
-    <t>Plagonium</t>
-  </si>
-  <si>
-    <t>Hemalothecium</t>
-  </si>
-  <si>
-    <t>Encalyeta</t>
-  </si>
-  <si>
     <t>Brachythecium</t>
   </si>
   <si>
@@ -243,9 +218,6 @@
   </si>
   <si>
     <t>Y01</t>
-  </si>
-  <si>
-    <t>Schistichum</t>
   </si>
   <si>
     <t>Plagiochila</t>
@@ -268,12 +240,15 @@
   <si>
     <t>Schistidium</t>
   </si>
+  <si>
+    <t>Encalypta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,19 +623,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3674E911-E2B3-4119-8B67-50E3ABB1855D}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,12 +658,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -706,12 +681,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -729,12 +704,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -752,12 +727,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -775,12 +750,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -798,12 +773,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -821,12 +796,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -844,12 +819,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -867,12 +842,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -890,12 +865,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -913,12 +888,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -936,12 +911,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -959,12 +934,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -982,12 +957,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1005,12 +980,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -1028,12 +1003,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1051,12 +1026,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1074,12 +1049,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -1097,12 +1072,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -1120,12 +1095,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1143,12 +1118,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1166,12 +1141,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -1189,12 +1164,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -1212,12 +1187,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -1235,12 +1210,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -1258,12 +1233,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -1281,12 +1256,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1304,12 +1279,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -1327,12 +1302,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -1350,12 +1325,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
@@ -1373,12 +1348,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -1396,12 +1371,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -1419,12 +1394,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -1442,12 +1417,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
@@ -1465,12 +1440,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -1488,12 +1463,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
@@ -1511,12 +1486,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -1534,12 +1509,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -1557,12 +1532,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
@@ -1580,12 +1555,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -1603,12 +1578,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -1637,16 +1612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EEC68E-8B6E-4EDD-8F10-FBB6340202CE}">
   <dimension ref="A1:G288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1660,12 +1635,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>-60</v>
@@ -1675,12 +1650,12 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>-60</v>
@@ -1689,12 +1664,12 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>-60</v>
@@ -1703,12 +1678,12 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>-60</v>
@@ -1717,12 +1692,12 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>-60</v>
@@ -1731,12 +1706,12 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>-60</v>
@@ -1745,12 +1720,12 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>-60</v>
@@ -1759,12 +1734,12 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>-60</v>
@@ -1773,12 +1748,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>-60</v>
@@ -1787,12 +1762,12 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>-60</v>
@@ -1801,12 +1776,12 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>-60</v>
@@ -1815,12 +1790,12 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>-60</v>
@@ -1829,12 +1804,12 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>-60</v>
@@ -1843,12 +1818,12 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <v>-60</v>
@@ -1857,12 +1832,12 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>-60</v>
@@ -1871,12 +1846,12 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>-60</v>
@@ -1885,12 +1860,12 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>-60</v>
@@ -1899,12 +1874,12 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>-60</v>
@@ -1913,12 +1888,12 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>-60</v>
@@ -1927,12 +1902,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>-60</v>
@@ -1941,12 +1916,12 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>-60</v>
@@ -1955,12 +1930,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>-60</v>
@@ -1969,12 +1944,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <v>-60</v>
@@ -1983,12 +1958,12 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>-60</v>
@@ -1997,12 +1972,12 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>-60</v>
@@ -2011,12 +1986,12 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>-60</v>
@@ -2025,12 +2000,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>-60</v>
@@ -2039,12 +2014,12 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>-60</v>
@@ -2053,12 +2028,12 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>-60</v>
@@ -2067,12 +2042,12 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>-60</v>
@@ -2081,12 +2056,12 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>-60</v>
@@ -2095,12 +2070,12 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>-60</v>
@@ -2109,12 +2084,12 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>-60</v>
@@ -2123,12 +2098,12 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C35">
         <v>-60</v>
@@ -2137,12 +2112,12 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>-60</v>
@@ -2151,12 +2126,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>-60</v>
@@ -2165,12 +2140,12 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>-60</v>
@@ -2179,12 +2154,12 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>-60</v>
@@ -2193,12 +2168,12 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>-60</v>
@@ -2207,12 +2182,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>-60</v>
@@ -2221,12 +2196,12 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>-60</v>
@@ -2235,12 +2210,12 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2249,12 +2224,12 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2263,12 +2238,12 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2277,12 +2252,12 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2291,12 +2266,12 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2305,12 +2280,12 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2319,12 +2294,12 @@
         <v>9.94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2333,12 +2308,12 @@
         <v>22.42</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2347,12 +2322,12 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2361,12 +2336,12 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2375,12 +2350,12 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2389,12 +2364,12 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2403,12 +2378,12 @@
         <v>13.29</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2417,12 +2392,12 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2431,12 +2406,12 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2445,12 +2420,12 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2459,12 +2434,12 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2473,12 +2448,12 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2487,12 +2462,12 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2501,12 +2476,12 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2515,12 +2490,12 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2529,12 +2504,12 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2543,12 +2518,12 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2557,12 +2532,12 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2571,12 +2546,12 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2585,12 +2560,12 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2599,12 +2574,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2613,12 +2588,12 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2627,12 +2602,12 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2641,12 +2616,12 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2655,12 +2630,12 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2669,12 +2644,12 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2683,12 +2658,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2697,12 +2672,12 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2711,12 +2686,12 @@
         <v>27.05</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2725,12 +2700,12 @@
         <v>12.76</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2739,12 +2714,12 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2753,12 +2728,12 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2767,12 +2742,12 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2781,12 +2756,12 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2795,12 +2770,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2809,12 +2784,12 @@
         <v>11.63</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -2823,12 +2798,12 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C85">
         <v>30</v>
@@ -2837,12 +2812,12 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C86">
         <v>30</v>
@@ -2851,12 +2826,12 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C87">
         <v>30</v>
@@ -2865,12 +2840,12 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C88">
         <v>30</v>
@@ -2879,12 +2854,12 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C89">
         <v>30</v>
@@ -2893,12 +2868,12 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C90">
         <v>30</v>
@@ -2907,12 +2882,12 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C91">
         <v>30</v>
@@ -2921,12 +2896,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C92">
         <v>30</v>
@@ -2935,12 +2910,12 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C93">
         <v>30</v>
@@ -2949,12 +2924,12 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C94">
         <v>30</v>
@@ -2963,12 +2938,12 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -2977,12 +2952,12 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -2991,12 +2966,12 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C97">
         <v>30</v>
@@ -3005,12 +2980,12 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C98">
         <v>30</v>
@@ -3019,12 +2994,12 @@
         <v>24.33</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C99">
         <v>30</v>
@@ -3033,12 +3008,12 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C100">
         <v>30</v>
@@ -3047,12 +3022,12 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C101">
         <v>30</v>
@@ -3061,12 +3036,12 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C102">
         <v>30</v>
@@ -3075,12 +3050,12 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C103">
         <v>30</v>
@@ -3089,12 +3064,12 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C104">
         <v>30</v>
@@ -3103,12 +3078,12 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C105">
         <v>30</v>
@@ -3117,12 +3092,12 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C106">
         <v>30</v>
@@ -3131,12 +3106,12 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C107">
         <v>30</v>
@@ -3145,12 +3120,12 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C108">
         <v>30</v>
@@ -3159,12 +3134,12 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C109">
         <v>30</v>
@@ -3173,12 +3148,12 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C110">
         <v>30</v>
@@ -3187,12 +3162,12 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C111">
         <v>30</v>
@@ -3201,12 +3176,12 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C112">
         <v>30</v>
@@ -3215,12 +3190,12 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C113">
         <v>30</v>
@@ -3229,12 +3204,12 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C114">
         <v>30</v>
@@ -3243,12 +3218,12 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>33</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C115">
         <v>30</v>
@@ -3257,12 +3232,12 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>34</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -3271,12 +3246,12 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C117">
         <v>30</v>
@@ -3285,12 +3260,12 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>36</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C118">
         <v>30</v>
@@ -3299,12 +3274,12 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>37</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C119">
         <v>30</v>
@@ -3313,12 +3288,12 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>38</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C120">
         <v>30</v>
@@ -3327,12 +3302,12 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C121">
         <v>30</v>
@@ -3341,12 +3316,12 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C122">
         <v>30</v>
@@ -3355,12 +3330,12 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C123">
         <v>30</v>
@@ -3369,12 +3344,12 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C124">
         <v>30</v>
@@ -3383,12 +3358,12 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C125">
         <v>60</v>
@@ -3397,12 +3372,12 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>46</v>
       </c>
       <c r="B126" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C126">
         <v>60</v>
@@ -3411,12 +3386,12 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C127">
         <v>60</v>
@@ -3425,12 +3400,12 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C128">
         <v>60</v>
@@ -3439,12 +3414,12 @@
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C129">
         <v>60</v>
@@ -3453,12 +3428,12 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C130">
         <v>60</v>
@@ -3467,12 +3442,12 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>51</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C131">
         <v>60</v>
@@ -3481,12 +3456,12 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>52</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C132">
         <v>60</v>
@@ -3495,12 +3470,12 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C133">
         <v>60</v>
@@ -3509,12 +3484,12 @@
         <v>9.48</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C134">
         <v>60</v>
@@ -3523,12 +3498,12 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>55</v>
       </c>
       <c r="B135" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C135">
         <v>60</v>
@@ -3537,12 +3512,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>56</v>
       </c>
       <c r="B136" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C136">
         <v>60</v>
@@ -3551,12 +3526,12 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C137">
         <v>60</v>
@@ -3565,12 +3540,12 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C138">
         <v>60</v>
@@ -3579,12 +3554,12 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C139">
         <v>60</v>
@@ -3593,12 +3568,12 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C140">
         <v>60</v>
@@ -3607,12 +3582,12 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C141">
         <v>60</v>
@@ -3621,12 +3596,12 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C142">
         <v>60</v>
@@ -3635,12 +3610,12 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C143">
         <v>60</v>
@@ -3649,12 +3624,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C144">
         <v>60</v>
@@ -3663,12 +3638,12 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C145">
         <v>60</v>
@@ -3677,12 +3652,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C146">
         <v>60</v>
@@ -3691,12 +3666,12 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C147">
         <v>60</v>
@@ -3705,12 +3680,12 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C148">
         <v>60</v>
@@ -3719,12 +3694,12 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C149">
         <v>60</v>
@@ -3733,12 +3708,12 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C150">
         <v>60</v>
@@ -3747,12 +3722,12 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C151">
         <v>60</v>
@@ -3761,12 +3736,12 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C152">
         <v>60</v>
@@ -3775,12 +3750,12 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C153">
         <v>60</v>
@@ -3789,12 +3764,12 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C154">
         <v>60</v>
@@ -3803,12 +3778,12 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C155">
         <v>60</v>
@@ -3817,12 +3792,12 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C156">
         <v>60</v>
@@ -3831,12 +3806,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -3845,12 +3820,12 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C158">
         <v>60</v>
@@ -3859,12 +3834,12 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3873,12 +3848,12 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>37</v>
       </c>
       <c r="B160" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C160">
         <v>60</v>
@@ -3887,12 +3862,12 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>38</v>
       </c>
       <c r="B161" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C161">
         <v>60</v>
@@ -3901,12 +3876,12 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>39</v>
       </c>
       <c r="B162" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C162">
         <v>60</v>
@@ -3915,12 +3890,12 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>40</v>
       </c>
       <c r="B163" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C163">
         <v>60</v>
@@ -3929,12 +3904,12 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>41</v>
       </c>
       <c r="B164" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C164">
         <v>60</v>
@@ -3943,12 +3918,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>42</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C165">
         <v>60</v>
@@ -3957,12 +3932,12 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>45</v>
       </c>
       <c r="B166" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C166">
         <v>90</v>
@@ -3971,12 +3946,12 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>46</v>
       </c>
       <c r="B167" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C167">
         <v>90</v>
@@ -3985,12 +3960,12 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>47</v>
       </c>
       <c r="B168" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C168">
         <v>90</v>
@@ -3999,12 +3974,12 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>48</v>
       </c>
       <c r="B169" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C169">
         <v>90</v>
@@ -4013,12 +3988,12 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>49</v>
       </c>
       <c r="B170" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C170">
         <v>90</v>
@@ -4027,12 +4002,12 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>50</v>
       </c>
       <c r="B171" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C171">
         <v>90</v>
@@ -4041,12 +4016,12 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>51</v>
       </c>
       <c r="B172" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C172">
         <v>90</v>
@@ -4055,12 +4030,12 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>52</v>
       </c>
       <c r="B173" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C173">
         <v>90</v>
@@ -4069,12 +4044,12 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>53</v>
       </c>
       <c r="B174" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C174">
         <v>90</v>
@@ -4083,12 +4058,12 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>54</v>
       </c>
       <c r="B175" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C175">
         <v>90</v>
@@ -4097,12 +4072,12 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>55</v>
       </c>
       <c r="B176" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C176">
         <v>90</v>
@@ -4111,12 +4086,12 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>56</v>
       </c>
       <c r="B177" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C177">
         <v>90</v>
@@ -4125,12 +4100,12 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C178">
         <v>90</v>
@@ -4139,12 +4114,12 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C179">
         <v>90</v>
@@ -4153,12 +4128,12 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C180">
         <v>90</v>
@@ -4167,12 +4142,12 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C181">
         <v>90</v>
@@ -4181,12 +4156,12 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C182">
         <v>90</v>
@@ -4195,12 +4170,12 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C183">
         <v>90</v>
@@ -4209,12 +4184,12 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C184">
         <v>90</v>
@@ -4223,12 +4198,12 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C185">
         <v>90</v>
@@ -4237,12 +4212,12 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C186">
         <v>90</v>
@@ -4251,12 +4226,12 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -4265,12 +4240,12 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C188">
         <v>90</v>
@@ -4279,12 +4254,12 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>18</v>
       </c>
       <c r="B189" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C189">
         <v>90</v>
@@ -4293,12 +4268,12 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C190">
         <v>90</v>
@@ -4307,12 +4282,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C191">
         <v>90</v>
@@ -4321,12 +4296,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C192">
         <v>90</v>
@@ -4335,12 +4310,12 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>22</v>
       </c>
       <c r="B193" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C193">
         <v>90</v>
@@ -4349,12 +4324,12 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>23</v>
       </c>
       <c r="B194" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C194">
         <v>90</v>
@@ -4363,12 +4338,12 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>24</v>
       </c>
       <c r="B195" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C195">
         <v>90</v>
@@ -4377,12 +4352,12 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C196">
         <v>90</v>
@@ -4391,12 +4366,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>33</v>
       </c>
       <c r="B197" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C197">
         <v>90</v>
@@ -4405,12 +4380,12 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>34</v>
       </c>
       <c r="B198" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C198">
         <v>90</v>
@@ -4419,12 +4394,12 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>35</v>
       </c>
       <c r="B199" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C199">
         <v>90</v>
@@ -4433,12 +4408,12 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>36</v>
       </c>
       <c r="B200" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C200">
         <v>90</v>
@@ -4447,12 +4422,12 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>37</v>
       </c>
       <c r="B201" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C201">
         <v>90</v>
@@ -4461,12 +4436,12 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>38</v>
       </c>
       <c r="B202" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C202">
         <v>90</v>
@@ -4475,12 +4450,12 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>39</v>
       </c>
       <c r="B203" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C203">
         <v>90</v>
@@ -4489,12 +4464,12 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>40</v>
       </c>
       <c r="B204" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C204">
         <v>90</v>
@@ -4503,12 +4478,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>41</v>
       </c>
       <c r="B205" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C205">
         <v>90</v>
@@ -4517,12 +4492,12 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>42</v>
       </c>
       <c r="B206" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C206">
         <v>90</v>
@@ -4531,12 +4506,12 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>45</v>
       </c>
       <c r="B207" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C207">
         <v>120</v>
@@ -4545,12 +4520,12 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>46</v>
       </c>
       <c r="B208" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C208">
         <v>120</v>
@@ -4559,12 +4534,12 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>47</v>
       </c>
       <c r="B209" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C209">
         <v>120</v>
@@ -4573,12 +4548,12 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>48</v>
       </c>
       <c r="B210" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C210">
         <v>120</v>
@@ -4587,12 +4562,12 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>49</v>
       </c>
       <c r="B211" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C211">
         <v>120</v>
@@ -4601,12 +4576,12 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>50</v>
       </c>
       <c r="B212" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C212">
         <v>120</v>
@@ -4615,12 +4590,12 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>51</v>
       </c>
       <c r="B213" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C213">
         <v>120</v>
@@ -4629,12 +4604,12 @@
         <v>17.54</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>52</v>
       </c>
       <c r="B214" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C214">
         <v>120</v>
@@ -4643,12 +4618,12 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>53</v>
       </c>
       <c r="B215" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C215">
         <v>120</v>
@@ -4657,12 +4632,12 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>54</v>
       </c>
       <c r="B216" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C216">
         <v>120</v>
@@ -4671,12 +4646,12 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>55</v>
       </c>
       <c r="B217" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C217">
         <v>120</v>
@@ -4685,12 +4660,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>56</v>
       </c>
       <c r="B218" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C218">
         <v>120</v>
@@ -4699,12 +4674,12 @@
         <v>9.86</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>7</v>
       </c>
       <c r="B219" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C219">
         <v>120</v>
@@ -4713,12 +4688,12 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C220">
         <v>120</v>
@@ -4727,12 +4702,12 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C221">
         <v>120</v>
@@ -4741,12 +4716,12 @@
         <v>23.03</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C222">
         <v>120</v>
@@ -4755,12 +4730,12 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C223">
         <v>120</v>
@@ -4769,12 +4744,12 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C224">
         <v>120</v>
@@ -4783,12 +4758,12 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C225">
         <v>120</v>
@@ -4797,12 +4772,12 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C226">
         <v>120</v>
@@ -4811,12 +4786,12 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C227">
         <v>120</v>
@@ -4825,12 +4800,12 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>16</v>
       </c>
       <c r="B228" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C228">
         <v>120</v>
@@ -4839,12 +4814,12 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>17</v>
       </c>
       <c r="B229" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C229">
         <v>120</v>
@@ -4853,12 +4828,12 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>18</v>
       </c>
       <c r="B230" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C230">
         <v>120</v>
@@ -4867,12 +4842,12 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>19</v>
       </c>
       <c r="B231" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C231">
         <v>120</v>
@@ -4881,12 +4856,12 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>20</v>
       </c>
       <c r="B232" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C232">
         <v>120</v>
@@ -4895,12 +4870,12 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>21</v>
       </c>
       <c r="B233" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C233">
         <v>120</v>
@@ -4909,12 +4884,12 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C234">
         <v>120</v>
@@ -4923,12 +4898,12 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>23</v>
       </c>
       <c r="B235" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C235">
         <v>120</v>
@@ -4937,12 +4912,12 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>24</v>
       </c>
       <c r="B236" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C236">
         <v>120</v>
@@ -4951,12 +4926,12 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B237" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C237">
         <v>120</v>
@@ -4965,12 +4940,12 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>33</v>
       </c>
       <c r="B238" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C238">
         <v>120</v>
@@ -4979,12 +4954,12 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>34</v>
       </c>
       <c r="B239" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C239">
         <v>120</v>
@@ -4993,12 +4968,12 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>35</v>
       </c>
       <c r="B240" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C240">
         <v>120</v>
@@ -5007,12 +4982,12 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>36</v>
       </c>
       <c r="B241" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C241">
         <v>120</v>
@@ -5021,12 +4996,12 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>37</v>
       </c>
       <c r="B242" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C242">
         <v>120</v>
@@ -5035,12 +5010,12 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>38</v>
       </c>
       <c r="B243" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C243">
         <v>120</v>
@@ -5049,12 +5024,12 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>39</v>
       </c>
       <c r="B244" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C244">
         <v>120</v>
@@ -5063,12 +5038,12 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>40</v>
       </c>
       <c r="B245" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C245">
         <v>120</v>
@@ -5077,12 +5052,12 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>41</v>
       </c>
       <c r="B246" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C246">
         <v>120</v>
@@ -5091,12 +5066,12 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>42</v>
       </c>
       <c r="B247" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C247">
         <v>120</v>
@@ -5105,12 +5080,12 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>45</v>
       </c>
       <c r="B248" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C248">
         <v>660</v>
@@ -5119,12 +5094,12 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>46</v>
       </c>
       <c r="B249" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C249">
         <v>660</v>
@@ -5133,12 +5108,12 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>47</v>
       </c>
       <c r="B250" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C250">
         <v>660</v>
@@ -5147,12 +5122,12 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>48</v>
       </c>
       <c r="B251" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C251">
         <v>660</v>
@@ -5161,12 +5136,12 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>49</v>
       </c>
       <c r="B252" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C252">
         <v>660</v>
@@ -5175,12 +5150,12 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>50</v>
       </c>
       <c r="B253" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C253">
         <v>660</v>
@@ -5189,12 +5164,12 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>51</v>
       </c>
       <c r="B254" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C254">
         <v>660</v>
@@ -5203,12 +5178,12 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>52</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C255">
         <v>660</v>
@@ -5217,12 +5192,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>53</v>
       </c>
       <c r="B256" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C256">
         <v>660</v>
@@ -5231,12 +5206,12 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>54</v>
       </c>
       <c r="B257" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C257">
         <v>660</v>
@@ -5245,12 +5220,12 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>55</v>
       </c>
       <c r="B258" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C258">
         <v>660</v>
@@ -5259,12 +5234,12 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>56</v>
       </c>
       <c r="B259" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C259">
         <v>660</v>
@@ -5273,12 +5248,12 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C260">
         <v>660</v>
@@ -5287,12 +5262,12 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>8</v>
       </c>
       <c r="B261" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C261">
         <v>660</v>
@@ -5301,12 +5276,12 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C262">
         <v>660</v>
@@ -5315,12 +5290,12 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C263">
         <v>660</v>
@@ -5329,12 +5304,12 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C264">
         <v>660</v>
@@ -5343,12 +5318,12 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>12</v>
       </c>
       <c r="B265" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C265">
         <v>660</v>
@@ -5357,12 +5332,12 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C266">
         <v>660</v>
@@ -5371,12 +5346,12 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>14</v>
       </c>
       <c r="B267" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C267">
         <v>660</v>
@@ -5385,12 +5360,12 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C268">
         <v>660</v>
@@ -5399,12 +5374,12 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C269">
         <v>660</v>
@@ -5413,12 +5388,12 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>17</v>
       </c>
       <c r="B270" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C270">
         <v>660</v>
@@ -5427,12 +5402,12 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>18</v>
       </c>
       <c r="B271" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C271">
         <v>660</v>
@@ -5441,12 +5416,12 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>19</v>
       </c>
       <c r="B272" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C272">
         <v>660</v>
@@ -5455,12 +5430,12 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>20</v>
       </c>
       <c r="B273" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C273">
         <v>660</v>
@@ -5469,12 +5444,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>21</v>
       </c>
       <c r="B274" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C274">
         <v>660</v>
@@ -5483,12 +5458,12 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>22</v>
       </c>
       <c r="B275" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C275">
         <v>660</v>
@@ -5497,12 +5472,12 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>23</v>
       </c>
       <c r="B276" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C276">
         <v>660</v>
@@ -5511,12 +5486,12 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>24</v>
       </c>
       <c r="B277" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C277">
         <v>660</v>
@@ -5525,12 +5500,12 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B278" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C278">
         <v>660</v>
@@ -5539,12 +5514,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>33</v>
       </c>
       <c r="B279" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C279">
         <v>660</v>
@@ -5553,12 +5528,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>34</v>
       </c>
       <c r="B280" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C280">
         <v>660</v>
@@ -5567,12 +5542,12 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>35</v>
       </c>
       <c r="B281" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C281">
         <v>660</v>
@@ -5581,12 +5556,12 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>36</v>
       </c>
       <c r="B282" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C282">
         <v>660</v>
@@ -5595,12 +5570,12 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>37</v>
       </c>
       <c r="B283" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C283">
         <v>660</v>
@@ -5609,12 +5584,12 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>38</v>
       </c>
       <c r="B284" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C284">
         <v>660</v>
@@ -5623,12 +5598,12 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>39</v>
       </c>
       <c r="B285" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C285">
         <v>660</v>
@@ -5637,12 +5612,12 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>40</v>
       </c>
       <c r="B286" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C286">
         <v>660</v>
@@ -5651,12 +5626,12 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>41</v>
       </c>
       <c r="B287" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C287">
         <v>660</v>
@@ -5665,12 +5640,12 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>42</v>
       </c>
       <c r="B288" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C288">
         <v>660</v>
@@ -5681,7 +5656,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D288" xr:uid="{B9EEC68E-8B6E-4EDD-8F10-FBB6340202CE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D288">
+  <sortState ref="A2:D288">
     <sortCondition ref="B288"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5692,16 +5667,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0442DCAB-3942-4EA7-B15F-E8F2712E4986}">
   <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D288"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:D288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5715,12 +5690,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>-60</v>
@@ -5729,12 +5704,12 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>-60</v>
@@ -5743,12 +5718,12 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>-60</v>
@@ -5757,12 +5732,12 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>-60</v>
@@ -5771,12 +5746,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>-60</v>
@@ -5785,12 +5760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>-60</v>
@@ -5799,12 +5774,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>-60</v>
@@ -5813,12 +5788,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>-60</v>
@@ -5827,12 +5802,12 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>-60</v>
@@ -5841,12 +5816,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>-60</v>
@@ -5855,12 +5830,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>-60</v>
@@ -5869,12 +5844,12 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>-60</v>
@@ -5883,12 +5858,12 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>-60</v>
@@ -5897,12 +5872,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>-60</v>
@@ -5911,12 +5886,12 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>-60</v>
@@ -5925,12 +5900,12 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>-60</v>
@@ -5939,12 +5914,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>-60</v>
@@ -5953,12 +5928,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>-60</v>
@@ -5967,12 +5942,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>-60</v>
@@ -5981,12 +5956,12 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>-60</v>
@@ -5995,12 +5970,12 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>-60</v>
@@ -6009,12 +5984,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>-60</v>
@@ -6023,12 +5998,12 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>-60</v>
@@ -6037,12 +6012,12 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>-60</v>
@@ -6051,12 +6026,12 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>-60</v>
@@ -6065,12 +6040,12 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>-60</v>
@@ -6079,12 +6054,12 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>-60</v>
@@ -6093,12 +6068,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>-60</v>
@@ -6107,12 +6082,12 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>-60</v>
@@ -6121,12 +6096,12 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>-60</v>
@@ -6135,12 +6110,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>-60</v>
@@ -6149,12 +6124,12 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>-60</v>
@@ -6163,12 +6138,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>-60</v>
@@ -6177,12 +6152,12 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>-60</v>
@@ -6191,12 +6166,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>-60</v>
@@ -6205,12 +6180,12 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>-60</v>
@@ -6219,12 +6194,12 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>-60</v>
@@ -6233,12 +6208,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>-60</v>
@@ -6247,12 +6222,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>-60</v>
@@ -6261,12 +6236,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>-60</v>
@@ -6275,12 +6250,12 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>-60</v>
@@ -6289,12 +6264,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -6303,12 +6278,12 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6317,12 +6292,12 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6331,12 +6306,12 @@
         <v>18.41</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6345,12 +6320,12 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6359,12 +6334,12 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6373,12 +6348,12 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6387,12 +6362,12 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6401,12 +6376,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6415,12 +6390,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6429,12 +6404,12 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6443,12 +6418,12 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6457,12 +6432,12 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6471,12 +6446,12 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -6485,12 +6460,12 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6499,12 +6474,12 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6513,12 +6488,12 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -6527,12 +6502,12 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -6541,12 +6516,12 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -6555,12 +6530,12 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -6569,12 +6544,12 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -6583,12 +6558,12 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -6597,12 +6572,12 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -6611,12 +6586,12 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -6625,12 +6600,12 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -6639,12 +6614,12 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -6653,12 +6628,12 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -6667,12 +6642,12 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6681,12 +6656,12 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -6695,12 +6670,12 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6709,12 +6684,12 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6723,12 +6698,12 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6737,12 +6712,12 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6751,12 +6726,12 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6765,12 +6740,12 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -6779,12 +6754,12 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -6793,12 +6768,12 @@
         <v>11.53</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -6807,12 +6782,12 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -6821,12 +6796,12 @@
         <v>9.23</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -6835,12 +6810,12 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -6849,12 +6824,12 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -6863,12 +6838,12 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -6877,12 +6852,12 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C85">
         <v>30</v>
@@ -6891,12 +6866,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C86">
         <v>30</v>
@@ -6905,12 +6880,12 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C87">
         <v>30</v>
@@ -6919,12 +6894,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C88">
         <v>30</v>
@@ -6933,12 +6908,12 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C89">
         <v>30</v>
@@ -6947,12 +6922,12 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C90">
         <v>30</v>
@@ -6961,12 +6936,12 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C91">
         <v>30</v>
@@ -6975,12 +6950,12 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C92">
         <v>30</v>
@@ -6989,12 +6964,12 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C93">
         <v>30</v>
@@ -7003,12 +6978,12 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C94">
         <v>30</v>
@@ -7017,12 +6992,12 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -7031,12 +7006,12 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -7045,12 +7020,12 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C97">
         <v>30</v>
@@ -7059,12 +7034,12 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C98">
         <v>30</v>
@@ -7073,12 +7048,12 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C99">
         <v>30</v>
@@ -7087,12 +7062,12 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C100">
         <v>30</v>
@@ -7101,12 +7076,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C101">
         <v>30</v>
@@ -7115,12 +7090,12 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C102">
         <v>30</v>
@@ -7129,12 +7104,12 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>33</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C103">
         <v>30</v>
@@ -7143,12 +7118,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C104">
         <v>30</v>
@@ -7157,12 +7132,12 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C105">
         <v>30</v>
@@ -7171,12 +7146,12 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C106">
         <v>30</v>
@@ -7185,12 +7160,12 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C107">
         <v>30</v>
@@ -7199,12 +7174,12 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>38</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C108">
         <v>30</v>
@@ -7213,12 +7188,12 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C109">
         <v>30</v>
@@ -7227,12 +7202,12 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C110">
         <v>30</v>
@@ -7241,12 +7216,12 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C111">
         <v>30</v>
@@ -7255,12 +7230,12 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C112">
         <v>30</v>
@@ -7269,12 +7244,12 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C113">
         <v>30</v>
@@ -7283,12 +7258,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>46</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C114">
         <v>30</v>
@@ -7297,12 +7272,12 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>47</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C115">
         <v>30</v>
@@ -7311,12 +7286,12 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>48</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -7325,12 +7300,12 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C117">
         <v>30</v>
@@ -7339,12 +7314,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>50</v>
       </c>
       <c r="B118" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C118">
         <v>30</v>
@@ -7353,12 +7328,12 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C119">
         <v>30</v>
@@ -7367,12 +7342,12 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C120">
         <v>30</v>
@@ -7381,12 +7356,12 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C121">
         <v>30</v>
@@ -7395,12 +7370,12 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C122">
         <v>30</v>
@@ -7409,12 +7384,12 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>55</v>
       </c>
       <c r="B123" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C123">
         <v>30</v>
@@ -7423,12 +7398,12 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>56</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C124">
         <v>30</v>
@@ -7437,12 +7412,12 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C125">
         <v>60</v>
@@ -7451,12 +7426,12 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C126">
         <v>60</v>
@@ -7465,12 +7440,12 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C127">
         <v>60</v>
@@ -7479,12 +7454,12 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C128">
         <v>60</v>
@@ -7493,12 +7468,12 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C129">
         <v>60</v>
@@ -7507,12 +7482,12 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C130">
         <v>60</v>
@@ -7521,12 +7496,12 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C131">
         <v>60</v>
@@ -7535,12 +7510,12 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C132">
         <v>60</v>
@@ -7549,12 +7524,12 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C133">
         <v>60</v>
@@ -7563,12 +7538,12 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C134">
         <v>60</v>
@@ -7577,12 +7552,12 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C135">
         <v>60</v>
@@ -7591,12 +7566,12 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C136">
         <v>60</v>
@@ -7605,12 +7580,12 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C137">
         <v>60</v>
@@ -7619,12 +7594,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C138">
         <v>60</v>
@@ -7633,12 +7608,12 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C139">
         <v>60</v>
@@ -7647,12 +7622,12 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C140">
         <v>60</v>
@@ -7661,12 +7636,12 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C141">
         <v>60</v>
@@ -7675,12 +7650,12 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C142">
         <v>60</v>
@@ -7689,12 +7664,12 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C143">
         <v>60</v>
@@ -7703,12 +7678,12 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>33</v>
       </c>
       <c r="B144" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C144">
         <v>60</v>
@@ -7717,12 +7692,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>34</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C145">
         <v>60</v>
@@ -7731,12 +7706,12 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C146">
         <v>60</v>
@@ -7745,12 +7720,12 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>36</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C147">
         <v>60</v>
@@ -7759,12 +7734,12 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>37</v>
       </c>
       <c r="B148" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C148">
         <v>60</v>
@@ -7773,12 +7748,12 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>38</v>
       </c>
       <c r="B149" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C149">
         <v>60</v>
@@ -7787,12 +7762,12 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C150">
         <v>60</v>
@@ -7801,12 +7776,12 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>40</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C151">
         <v>60</v>
@@ -7815,12 +7790,12 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>41</v>
       </c>
       <c r="B152" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C152">
         <v>60</v>
@@ -7829,12 +7804,12 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>42</v>
       </c>
       <c r="B153" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C153">
         <v>60</v>
@@ -7843,12 +7818,12 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C154">
         <v>60</v>
@@ -7857,12 +7832,12 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C155">
         <v>60</v>
@@ -7871,12 +7846,12 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>47</v>
       </c>
       <c r="B156" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C156">
         <v>60</v>
@@ -7885,12 +7860,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>48</v>
       </c>
       <c r="B157" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -7899,12 +7874,12 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C158">
         <v>60</v>
@@ -7913,12 +7888,12 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>50</v>
       </c>
       <c r="B159" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -7927,12 +7902,12 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>51</v>
       </c>
       <c r="B160" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C160">
         <v>60</v>
@@ -7941,12 +7916,12 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C161">
         <v>60</v>
@@ -7955,12 +7930,12 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>53</v>
       </c>
       <c r="B162" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C162">
         <v>60</v>
@@ -7969,12 +7944,12 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>54</v>
       </c>
       <c r="B163" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C163">
         <v>60</v>
@@ -7983,12 +7958,12 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>55</v>
       </c>
       <c r="B164" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C164">
         <v>60</v>
@@ -7997,12 +7972,12 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>56</v>
       </c>
       <c r="B165" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C165">
         <v>60</v>
@@ -8011,12 +7986,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C166">
         <v>90</v>
@@ -8025,12 +8000,12 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C167">
         <v>90</v>
@@ -8039,12 +8014,12 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C168">
         <v>90</v>
@@ -8053,12 +8028,12 @@
         <v>10.59</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C169">
         <v>90</v>
@@ -8067,12 +8042,12 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C170">
         <v>90</v>
@@ -8081,12 +8056,12 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C171">
         <v>90</v>
@@ -8095,12 +8070,12 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C172">
         <v>90</v>
@@ -8109,12 +8084,12 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C173">
         <v>90</v>
@@ -8123,12 +8098,12 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C174">
         <v>90</v>
@@ -8137,12 +8112,12 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C175">
         <v>90</v>
@@ -8151,12 +8126,12 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C176">
         <v>90</v>
@@ -8165,12 +8140,12 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C177">
         <v>90</v>
@@ -8179,12 +8154,12 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C178">
         <v>90</v>
@@ -8193,12 +8168,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C179">
         <v>90</v>
@@ -8207,12 +8182,12 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C180">
         <v>90</v>
@@ -8221,12 +8196,12 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C181">
         <v>90</v>
@@ -8235,12 +8210,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C182">
         <v>90</v>
@@ -8249,12 +8224,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C183">
         <v>90</v>
@@ -8263,12 +8238,12 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C184">
         <v>90</v>
@@ -8277,12 +8252,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>33</v>
       </c>
       <c r="B185" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C185">
         <v>90</v>
@@ -8291,12 +8266,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>34</v>
       </c>
       <c r="B186" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C186">
         <v>90</v>
@@ -8305,12 +8280,12 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>35</v>
       </c>
       <c r="B187" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C187">
         <v>90</v>
@@ -8319,12 +8294,12 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>36</v>
       </c>
       <c r="B188" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C188">
         <v>90</v>
@@ -8333,12 +8308,12 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>37</v>
       </c>
       <c r="B189" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C189">
         <v>90</v>
@@ -8347,12 +8322,12 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>38</v>
       </c>
       <c r="B190" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C190">
         <v>90</v>
@@ -8361,12 +8336,12 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>39</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C191">
         <v>90</v>
@@ -8375,12 +8350,12 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C192">
         <v>90</v>
@@ -8389,12 +8364,12 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>41</v>
       </c>
       <c r="B193" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C193">
         <v>90</v>
@@ -8403,12 +8378,12 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>42</v>
       </c>
       <c r="B194" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C194">
         <v>90</v>
@@ -8417,12 +8392,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>45</v>
       </c>
       <c r="B195" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C195">
         <v>90</v>
@@ -8431,12 +8406,12 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>46</v>
       </c>
       <c r="B196" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C196">
         <v>90</v>
@@ -8445,12 +8420,12 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>47</v>
       </c>
       <c r="B197" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C197">
         <v>90</v>
@@ -8459,12 +8434,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>48</v>
       </c>
       <c r="B198" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C198">
         <v>90</v>
@@ -8473,12 +8448,12 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>49</v>
       </c>
       <c r="B199" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C199">
         <v>90</v>
@@ -8487,12 +8462,12 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>50</v>
       </c>
       <c r="B200" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C200">
         <v>90</v>
@@ -8501,12 +8476,12 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>51</v>
       </c>
       <c r="B201" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C201">
         <v>90</v>
@@ -8515,12 +8490,12 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>52</v>
       </c>
       <c r="B202" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C202">
         <v>90</v>
@@ -8529,12 +8504,12 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>53</v>
       </c>
       <c r="B203" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C203">
         <v>90</v>
@@ -8543,12 +8518,12 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>54</v>
       </c>
       <c r="B204" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C204">
         <v>90</v>
@@ -8557,12 +8532,12 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>55</v>
       </c>
       <c r="B205" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C205">
         <v>90</v>
@@ -8571,12 +8546,12 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>56</v>
       </c>
       <c r="B206" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C206">
         <v>90</v>
@@ -8585,12 +8560,12 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C207">
         <v>120</v>
@@ -8599,12 +8574,12 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C208">
         <v>120</v>
@@ -8613,12 +8588,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C209">
         <v>120</v>
@@ -8627,12 +8602,12 @@
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>10</v>
       </c>
       <c r="B210" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C210">
         <v>120</v>
@@ -8641,12 +8616,12 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C211">
         <v>120</v>
@@ -8655,12 +8630,12 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>12</v>
       </c>
       <c r="B212" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C212">
         <v>120</v>
@@ -8669,12 +8644,12 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C213">
         <v>120</v>
@@ -8683,12 +8658,12 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C214">
         <v>120</v>
@@ -8697,12 +8672,12 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C215">
         <v>120</v>
@@ -8711,12 +8686,12 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>16</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C216">
         <v>120</v>
@@ -8725,12 +8700,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>17</v>
       </c>
       <c r="B217" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C217">
         <v>120</v>
@@ -8739,12 +8714,12 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>18</v>
       </c>
       <c r="B218" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C218">
         <v>120</v>
@@ -8753,12 +8728,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>19</v>
       </c>
       <c r="B219" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C219">
         <v>120</v>
@@ -8767,12 +8742,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C220">
         <v>120</v>
@@ -8781,12 +8756,12 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>21</v>
       </c>
       <c r="B221" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C221">
         <v>120</v>
@@ -8795,12 +8770,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>22</v>
       </c>
       <c r="B222" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C222">
         <v>120</v>
@@ -8809,12 +8784,12 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>23</v>
       </c>
       <c r="B223" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C223">
         <v>120</v>
@@ -8823,12 +8798,12 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>24</v>
       </c>
       <c r="B224" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C224">
         <v>120</v>
@@ -8837,12 +8812,12 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B225" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C225">
         <v>120</v>
@@ -8851,12 +8826,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>33</v>
       </c>
       <c r="B226" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C226">
         <v>120</v>
@@ -8865,12 +8840,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>34</v>
       </c>
       <c r="B227" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C227">
         <v>120</v>
@@ -8879,12 +8854,12 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>35</v>
       </c>
       <c r="B228" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C228">
         <v>120</v>
@@ -8893,12 +8868,12 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>36</v>
       </c>
       <c r="B229" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C229">
         <v>120</v>
@@ -8907,12 +8882,12 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>37</v>
       </c>
       <c r="B230" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C230">
         <v>120</v>
@@ -8921,12 +8896,12 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>38</v>
       </c>
       <c r="B231" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C231">
         <v>120</v>
@@ -8935,12 +8910,12 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>39</v>
       </c>
       <c r="B232" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C232">
         <v>120</v>
@@ -8949,12 +8924,12 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>40</v>
       </c>
       <c r="B233" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C233">
         <v>120</v>
@@ -8963,12 +8938,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>41</v>
       </c>
       <c r="B234" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C234">
         <v>120</v>
@@ -8977,12 +8952,12 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>42</v>
       </c>
       <c r="B235" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C235">
         <v>120</v>
@@ -8991,12 +8966,12 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>45</v>
       </c>
       <c r="B236" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C236">
         <v>120</v>
@@ -9005,12 +8980,12 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>46</v>
       </c>
       <c r="B237" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C237">
         <v>120</v>
@@ -9019,12 +8994,12 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>47</v>
       </c>
       <c r="B238" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C238">
         <v>120</v>
@@ -9033,12 +9008,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>48</v>
       </c>
       <c r="B239" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C239">
         <v>120</v>
@@ -9047,12 +9022,12 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>49</v>
       </c>
       <c r="B240" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C240">
         <v>120</v>
@@ -9061,12 +9036,12 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>50</v>
       </c>
       <c r="B241" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C241">
         <v>120</v>
@@ -9075,12 +9050,12 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>51</v>
       </c>
       <c r="B242" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C242">
         <v>120</v>
@@ -9089,12 +9064,12 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>52</v>
       </c>
       <c r="B243" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C243">
         <v>120</v>
@@ -9103,12 +9078,12 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>53</v>
       </c>
       <c r="B244" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C244">
         <v>120</v>
@@ -9117,12 +9092,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>54</v>
       </c>
       <c r="B245" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C245">
         <v>120</v>
@@ -9131,12 +9106,12 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>55</v>
       </c>
       <c r="B246" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C246">
         <v>120</v>
@@ -9145,12 +9120,12 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>56</v>
       </c>
       <c r="B247" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C247">
         <v>120</v>
@@ -9159,12 +9134,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>7</v>
       </c>
       <c r="B248" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C248">
         <v>660</v>
@@ -9173,12 +9148,12 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>8</v>
       </c>
       <c r="B249" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C249">
         <v>660</v>
@@ -9187,12 +9162,12 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C250">
         <v>660</v>
@@ -9201,12 +9176,12 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C251">
         <v>660</v>
@@ -9215,12 +9190,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C252">
         <v>660</v>
@@ -9229,12 +9204,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C253">
         <v>660</v>
@@ -9243,12 +9218,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C254">
         <v>660</v>
@@ -9257,12 +9232,12 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>14</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C255">
         <v>660</v>
@@ -9271,12 +9246,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C256">
         <v>660</v>
@@ -9285,12 +9260,12 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>16</v>
       </c>
       <c r="B257" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C257">
         <v>660</v>
@@ -9299,12 +9274,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>17</v>
       </c>
       <c r="B258" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C258">
         <v>660</v>
@@ -9313,12 +9288,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>18</v>
       </c>
       <c r="B259" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C259">
         <v>660</v>
@@ -9327,12 +9302,12 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>19</v>
       </c>
       <c r="B260" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C260">
         <v>660</v>
@@ -9341,12 +9316,12 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>20</v>
       </c>
       <c r="B261" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C261">
         <v>660</v>
@@ -9355,12 +9330,12 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>21</v>
       </c>
       <c r="B262" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C262">
         <v>660</v>
@@ -9369,12 +9344,12 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>22</v>
       </c>
       <c r="B263" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C263">
         <v>660</v>
@@ -9383,12 +9358,12 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>23</v>
       </c>
       <c r="B264" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C264">
         <v>660</v>
@@ -9397,12 +9372,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>24</v>
       </c>
       <c r="B265" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C265">
         <v>660</v>
@@ -9411,12 +9386,12 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B266" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C266">
         <v>660</v>
@@ -9425,12 +9400,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>33</v>
       </c>
       <c r="B267" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C267">
         <v>660</v>
@@ -9439,12 +9414,12 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>34</v>
       </c>
       <c r="B268" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C268">
         <v>660</v>
@@ -9453,12 +9428,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>35</v>
       </c>
       <c r="B269" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C269">
         <v>660</v>
@@ -9467,12 +9442,12 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>36</v>
       </c>
       <c r="B270" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C270">
         <v>660</v>
@@ -9481,12 +9456,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>37</v>
       </c>
       <c r="B271" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C271">
         <v>660</v>
@@ -9495,12 +9470,12 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>38</v>
       </c>
       <c r="B272" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C272">
         <v>660</v>
@@ -9509,12 +9484,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>39</v>
       </c>
       <c r="B273" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C273">
         <v>660</v>
@@ -9523,12 +9498,12 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>40</v>
       </c>
       <c r="B274" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C274">
         <v>660</v>
@@ -9537,12 +9512,12 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>41</v>
       </c>
       <c r="B275" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C275">
         <v>660</v>
@@ -9551,12 +9526,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>42</v>
       </c>
       <c r="B276" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C276">
         <v>660</v>
@@ -9565,12 +9540,12 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>45</v>
       </c>
       <c r="B277" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C277">
         <v>660</v>
@@ -9579,12 +9554,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>46</v>
       </c>
       <c r="B278" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C278">
         <v>660</v>
@@ -9593,12 +9568,12 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>47</v>
       </c>
       <c r="B279" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C279">
         <v>660</v>
@@ -9607,12 +9582,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>48</v>
       </c>
       <c r="B280" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C280">
         <v>660</v>
@@ -9621,12 +9596,12 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>49</v>
       </c>
       <c r="B281" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C281">
         <v>660</v>
@@ -9635,12 +9610,12 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>50</v>
       </c>
       <c r="B282" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C282">
         <v>660</v>
@@ -9649,12 +9624,12 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>51</v>
       </c>
       <c r="B283" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C283">
         <v>660</v>
@@ -9663,12 +9638,12 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>52</v>
       </c>
       <c r="B284" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C284">
         <v>660</v>
@@ -9677,12 +9652,12 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>53</v>
       </c>
       <c r="B285" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C285">
         <v>660</v>
@@ -9691,12 +9666,12 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>54</v>
       </c>
       <c r="B286" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C286">
         <v>660</v>
@@ -9705,12 +9680,12 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>55</v>
       </c>
       <c r="B287" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C287">
         <v>660</v>
@@ -9719,12 +9694,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>56</v>
       </c>
       <c r="B288" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C288">
         <v>660</v>
@@ -9734,6 +9709,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D288" xr:uid="{B22E7E6B-978B-4C87-B6AE-4CC32DEF124A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>